--- a/前端工具+路线.xlsx
+++ b/前端工具+路线.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12615"/>
+    <workbookView windowWidth="20490" windowHeight="7785" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工具" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Bootstrap 是最受欢迎的 </t>
     </r>
     <r>
@@ -76,6 +82,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>静态模块打包器</t>
     </r>
     <r>
@@ -90,6 +102,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>WebPack可以看做是模块打包机：                 它做的事情是，</t>
     </r>
     <r>
@@ -139,6 +157,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Next.js 是一个轻量级的 </t>
     </r>
     <r>
@@ -156,6 +180,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Babel 是一个 JavaScript 编译器。Babel </t>
     </r>
     <r>
@@ -173,6 +203,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Node.js 是一个基于 Chrome V8 引擎的 </t>
     </r>
     <r>
@@ -190,6 +226,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">依赖管理工具。是 </t>
     </r>
     <r>
@@ -229,6 +271,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Browsersync </t>
     </r>
     <r>
@@ -258,6 +306,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>Parcel Vs Webpack</t>
     </r>
     <r>
@@ -299,6 +353,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">语义HTML                                                                                                页面分成 </t>
     </r>
     <r>
@@ -316,6 +376,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>CSS 级联样式表</t>
     </r>
     <r>
@@ -330,6 +396,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">熟悉常见的 CSS 属性                                                                               盒模型，利用 </t>
     </r>
     <r>
@@ -386,6 +458,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>操纵 DOM</t>
     </r>
     <r>
@@ -412,6 +490,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">yarn 和 </t>
     </r>
     <r>
@@ -438,6 +522,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>预处理器能解决</t>
     </r>
     <r>
@@ -452,6 +542,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>Sass、Less、Stylus，</t>
     </r>
     <r>
@@ -469,6 +565,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>不再需要学习</t>
     </r>
     <r>
@@ -495,6 +597,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>项目变大</t>
     </r>
     <r>
@@ -509,6 +617,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>OOCSS、SMACSS、SUITCSS、Atomic、</t>
     </r>
     <r>
@@ -534,6 +648,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">帮助 </t>
     </r>
     <r>
@@ -548,6 +668,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>linter（</t>
     </r>
     <r>
@@ -588,6 +713,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>task runner（</t>
     </r>
     <r>
@@ -637,6 +767,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">模块打包工具: </t>
     </r>
     <r>
@@ -742,6 +878,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">学 </t>
     </r>
     <r>
@@ -801,6 +943,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Vuex </t>
     </r>
     <r>
@@ -815,6 +963,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>衡量和改进</t>
     </r>
     <r>
@@ -835,6 +989,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">一旦完成了上述所有步骤，再来学习一下 </t>
     </r>
     <r>
@@ -870,6 +1030,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. 组合使用 Jest、Mocha、 Karma 及 Enzyme                                       2. </t>
     </r>
     <r>
@@ -929,6 +1095,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">React： </t>
     </r>
     <r>
@@ -983,12 +1155,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1035,12 +1207,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="11"/>
@@ -1050,13 +1216,114 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="微软雅黑"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1086,130 +1353,11 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -1226,6 +1374,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1238,175 +1548,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1420,26 +1568,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1455,6 +1594,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1494,17 +1642,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1520,150 +1668,150 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1695,16 +1843,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2053,29 +2195,29 @@
   <sheetPr/>
   <dimension ref="B1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="11"/>
-    <col min="2" max="2" width="12.75" style="11" customWidth="1"/>
-    <col min="3" max="3" width="61.625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="44.5" style="11" customWidth="1"/>
-    <col min="5" max="5" width="58.25" style="11" customWidth="1"/>
-    <col min="6" max="6" width="24.75" style="11" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="11"/>
+    <col min="1" max="1" width="8.875" style="1"/>
+    <col min="2" max="2" width="12.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="44.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="58.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.75" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:5">
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2083,24 +2225,24 @@
       <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" ht="82.5" spans="2:5">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2108,7 +2250,7 @@
       <c r="B4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2116,7 +2258,7 @@
       <c r="B5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2124,7 +2266,7 @@
       <c r="B6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2132,10 +2274,10 @@
       <c r="B7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2143,7 +2285,7 @@
       <c r="B8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2151,10 +2293,10 @@
       <c r="B9" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="5" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="10" t="s">
@@ -2162,7 +2304,7 @@
       </c>
     </row>
     <row r="18" spans="4:4">
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2189,8 +2331,8 @@
   <sheetPr/>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2198,7 +2340,7 @@
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="19.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="52.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="59.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="58.75" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
